--- a/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
@@ -4,26 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="sitemap" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.2.0-alpha.1</t>
   </si>
   <si>
     <t>「Pickles2」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2015-12-25 16:37:53</t>
+    <t>Exported: 2022-01-04 09:00:42</t>
   </si>
   <si>
     <t>ページID</t>
@@ -50,6 +50,9 @@
     <t>コンテンツファイルの格納先</t>
   </si>
   <si>
+    <t>論理構造上のパス</t>
+  </si>
+  <si>
     <t>一覧表示フラグ</t>
   </si>
   <si>
@@ -68,6 +71,12 @@
     <t>カテゴリトップフラグ</t>
   </si>
   <si>
+    <t>ロール</t>
+  </si>
+  <si>
+    <t>コンテンツの処理方法</t>
+  </si>
+  <si>
     <t>削除フラグ</t>
   </si>
   <si>
@@ -95,6 +104,9 @@
     <t>content</t>
   </si>
   <si>
+    <t>logical_path</t>
+  </si>
+  <si>
     <t>list_flg</t>
   </si>
   <si>
@@ -111,6 +123,12 @@
   </si>
   <si>
     <t>category_top_flg</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>proc_type</t>
   </si>
   <si>
     <t>**delete_flg</t>
@@ -215,55 +233,15 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFdddddd"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFdddddd"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFdddddd"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -273,22 +251,19 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
@@ -589,17 +564,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -616,15 +591,15 @@
     <col min="10" max="10" width="2" customWidth="true" style="0"/>
     <col min="11" max="11" width="40" customWidth="true" style="0"/>
     <col min="12" max="12" width="20" customWidth="true" style="0"/>
-    <col min="13" max="13" width="3" customWidth="true" style="0"/>
-    <col min="14" max="14" width="9" customWidth="true" style="0"/>
+    <col min="14" max="14" width="3" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9" customWidth="true" style="0"/>
+    <col min="18" max="18" width="30" customWidth="true" style="0"/>
     <col min="17" max="17" width="30" customWidth="true" style="0"/>
-    <col min="16" max="16" width="30" customWidth="true" style="0"/>
-    <col min="15" max="15" width="3" customWidth="true" style="0"/>
-    <col min="18" max="18" width="3" customWidth="true" style="0"/>
+    <col min="16" max="16" width="3" customWidth="true" style="0"/>
+    <col min="19" max="19" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" customHeight="1" ht="10">
+    <row r="1" spans="1:22" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,28 +621,31 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:22">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
@@ -707,109 +685,133 @@
       <c r="S7" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="T7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="5" t="s">
+    <row r="8" spans="1:22">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="N8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="O8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="P8" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="Q8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
+    <row r="9" spans="1:22">
+      <c r="A9"/>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
     </row>
-    <row r="12" spans="1:19" customHeight="1" ht="5">
-      <c r="A12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
+    <row r="12" spans="1:22" customHeight="1" ht="5">
+      <c r="A12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -819,7 +821,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
